--- a/downloaded_files/AETS280_Lecture-35280.xlsx
+++ b/downloaded_files/AETS280_Lecture-35280.xlsx
@@ -114,6 +114,15 @@
     <x:t>Joudy Amin abd ElReheem</x:t>
   </x:si>
   <x:si>
+    <x:t>1240215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جوفان اشرف سيف برسوم ارمانيوس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jovan Ashraf Seif Barsoum</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240047</x:t>
   </x:si>
   <x:si>
@@ -235,15 +244,6 @@
   </x:si>
   <x:si>
     <x:t>Caren Sameh Shafik Beshara</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ليلى محمد محمود محمد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Layla Mohamed Mahmoud Mohamed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1240131</x:t>
@@ -1110,7 +1110,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6735564005</x:v>
+        <x:v>45923.5548975694</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1142,7 +1142,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4155978819</x:v>
+        <x:v>45907.6735564005</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1174,7 +1174,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6658712616</x:v>
+        <x:v>45908.4155978819</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1206,7 +1206,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6699878125</x:v>
+        <x:v>45907.6658712616</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1238,7 +1238,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6656428241</x:v>
+        <x:v>45907.6699878125</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1270,7 +1270,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6652001505</x:v>
+        <x:v>45907.6656428241</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1302,7 +1302,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6685396644</x:v>
+        <x:v>45907.6652001505</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1334,7 +1334,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6733038194</x:v>
+        <x:v>45907.6685396644</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1362,9 +1362,11 @@
       <x:c r="C19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s"/>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6671441782</x:v>
+        <x:v>45907.6733038194</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1387,16 +1389,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45907.6647845718</x:v>
+        <x:v>45907.6671441782</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1428,7 +1428,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6678549769</x:v>
+        <x:v>45907.6647845718</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1460,7 +1460,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.665128125</x:v>
+        <x:v>45907.6678549769</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1492,7 +1492,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6723212616</x:v>
+        <x:v>45907.665128125</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1524,7 +1524,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6740405093</x:v>
+        <x:v>45907.6723212616</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1556,7 +1556,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6691388889</x:v>
+        <x:v>45907.6740405093</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>

--- a/downloaded_files/AETS280_Lecture-35280.xlsx
+++ b/downloaded_files/AETS280_Lecture-35280.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -244,15 +244,6 @@
   </x:si>
   <x:si>
     <x:t>Caren Sameh Shafik Beshara</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد شعبان محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed ahmed shaaban</x:t>
   </x:si>
   <x:si>
     <x:t>1240151</x:t>
@@ -431,7 +422,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -731,7 +722,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1588,7 +1579,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6870857986</x:v>
+        <x:v>45915.9574689005</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1620,7 +1611,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.9574689005</x:v>
+        <x:v>45907.4167320602</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1652,7 +1643,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4167320602</x:v>
+        <x:v>45907.6650974537</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1684,7 +1675,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6650974537</x:v>
+        <x:v>45915.957200081</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1716,7 +1707,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.957200081</x:v>
+        <x:v>45907.6671581019</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1748,7 +1739,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6671581019</x:v>
+        <x:v>45907.6652211806</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1780,7 +1771,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6652211806</x:v>
+        <x:v>45907.450612419</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1797,38 +1788,6 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45907.450612419</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
